--- a/DATA_goal/Junction_Flooding_107.xlsx
+++ b/DATA_goal/Junction_Flooding_107.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41539.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.71</v>
+        <v>4.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.46</v>
+        <v>3.95</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.85</v>
+        <v>1.78</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.09</v>
+        <v>5.91</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.81</v>
+        <v>1.98</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>262.76</v>
+        <v>26.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.41</v>
+        <v>4.94</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.79</v>
+        <v>3.28</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.4</v>
+        <v>2.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.57</v>
+        <v>1.96</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.17</v>
+        <v>5.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41539.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.02</v>
+        <v>2.4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>2.07</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>73.03</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>20.74</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.66</v>
+        <v>2.67</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.82</v>
+        <v>27.88</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.58</v>
+        <v>5.26</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.17</v>
+        <v>3.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.39</v>
+        <v>3.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.67</v>
+        <v>2.17</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>66.06999999999999</v>
+        <v>6.61</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41539.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.89</v>
+        <v>2.09</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>46.54</v>
+        <v>4.65</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41539.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.35</v>
+        <v>0.84</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41539.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41539.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>24.25</v>
+        <v>2.42</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>20.05</v>
+        <v>2.01</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>29.63</v>
+        <v>2.96</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>126.54</v>
+        <v>12.65</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>24.4</v>
+        <v>2.44</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>26.34</v>
+        <v>2.63</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.55</v>
+        <v>0.45</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41539.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>77.37</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>4.54</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>20.97</v>
+        <v>2.1</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41539.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.14</v>
+        <v>3.91</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.36</v>
+        <v>3.24</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>52.29</v>
+        <v>5.23</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.55</v>
+        <v>1.46</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.14</v>
+        <v>2.01</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>207.84</v>
+        <v>20.78</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>39.45</v>
+        <v>3.95</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.59</v>
+        <v>2.66</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>47.27</v>
+        <v>4.73</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41539.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="X10" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>5.05</v>
+        <v>0.51</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_107.xlsx
+++ b/DATA_goal/Junction_Flooding_107.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,8 +461,8 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41539.34027777778</v>
+        <v>44788.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.54</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.91</v>
+        <v>5.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>1.8</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="M2" s="4" t="n">
         <v>1.89</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1.98</v>
-      </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.28</v>
+        <v>25.02</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.94</v>
+        <v>4.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.94</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC2" s="4" t="n">
         <v>1.45</v>
       </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AD2" s="4" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.22</v>
+        <v>4.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41539.34722222222</v>
+        <v>44788.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.4</v>
+        <v>0.77</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.16</v>
+        <v>1.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.27</v>
+        <v>1.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.89</v>
+        <v>0.6</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.3</v>
+        <v>2.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>0.93</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.39</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.07</v>
+        <v>0.65</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.17</v>
+        <v>0.67</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1.88</v>
-      </c>
       <c r="P3" s="4" t="n">
-        <v>2.67</v>
+        <v>0.84</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.53</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>8.43</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.26</v>
+        <v>1.7</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.52</v>
+        <v>1.11</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.54</v>
+        <v>1.25</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.47</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.53</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.17</v>
+        <v>0.67</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.61</v>
+        <v>2.48</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41539.35416666666</v>
+        <v>44788.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.09</v>
+        <v>3.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.55</v>
+        <v>1.34</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.58</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.86</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.65</v>
+        <v>12.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.03</v>
+        <v>2.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.92</v>
+        <v>1.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.92</v>
+        <v>2.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41539.36111111111</v>
+        <v>44788.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.39</v>
+        <v>2.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.53</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.84</v>
+        <v>4.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.68</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41539.36805555555</v>
+        <v>44788.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.17</v>
+        <v>10.09</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.1</v>
+        <v>7.3</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.78</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.35</v>
+        <v>21.69</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.29</v>
+        <v>17.93</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.14</v>
+        <v>7.94</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.66</v>
+        <v>33.18</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.21</v>
+        <v>12.22</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.08</v>
+        <v>5.37</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.12</v>
+        <v>8</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.14</v>
+        <v>9.18</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.04</v>
+        <v>2.54</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.14</v>
+        <v>7.9</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.18</v>
+        <v>11.2</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.13</v>
+        <v>6.75</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>1.33</v>
+        <v>112.86</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.38</v>
+        <v>22.17</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.12</v>
+        <v>7.29</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.24</v>
+        <v>14.8</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.14</v>
+        <v>7.91</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.01</v>
+        <v>1.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.28</v>
+        <v>15.7</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.11</v>
+        <v>6.44</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.11</v>
+        <v>5.78</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.13</v>
+        <v>6.77</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.15</v>
+        <v>9.19</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>0.59</v>
+        <v>30.21</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.06</v>
+        <v>4.05</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41539.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41539.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41539.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41539.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41539.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>2.34</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_107.xlsx
+++ b/DATA_goal/Junction_Flooding_107.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44788.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.54</v>
+        <v>45.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.75</v>
+        <v>37.51</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.57</v>
+        <v>55.7</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.37</v>
+        <v>23.75</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.02</v>
+        <v>250.17</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.71</v>
+        <v>47.09</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.11</v>
+        <v>31.15</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.66</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44788.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.43</v>
+        <v>84.27</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.48</v>
+        <v>24.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44788.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>124.28</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.99</v>
+        <v>29.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44788.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.63</v>
+        <v>36.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3</v>
+        <v>29.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5</v>
+        <v>49.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.3</v>
+        <v>192.96</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.68</v>
+        <v>36.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.52</v>
+        <v>45.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_107.xlsx
+++ b/DATA_goal/Junction_Flooding_107.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,91 +655,91 @@
         <v>44788.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.46</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.36</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.51</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.7</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.02</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.88</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.43</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.75</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.24</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.17</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.09</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.15</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.25</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.41</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.66</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.75</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.41</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.52</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44788.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.69</v>
+        <v>7.687</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.02</v>
+        <v>5.021</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.56</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.06</v>
+        <v>16.057</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>6.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.17</v>
+        <v>27.174</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.88</v>
+        <v>3.881</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.87</v>
+        <v>5.875</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.52</v>
+        <v>6.517</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.69</v>
+        <v>6.695</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.94</v>
+        <v>1.937</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.4</v>
+        <v>8.401999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.33</v>
+        <v>5.333</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.27</v>
+        <v>84.265</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.02</v>
+        <v>17.022</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.07</v>
+        <v>11.066</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>5.96</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.54</v>
+        <v>12.538</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.65</v>
+        <v>4.654</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.33</v>
+        <v>5.329</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.66</v>
+        <v>6.661</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.83</v>
+        <v>24.833</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.98</v>
+        <v>2.977</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.943</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>11.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.82</v>
+        <v>7.822</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.157</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.61</v>
+        <v>23.607</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.52</v>
+        <v>19.519</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.696</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.23</v>
+        <v>33.227</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.79</v>
+        <v>5.787</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.69</v>
+        <v>8.694000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.58</v>
+        <v>9.577</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.961</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.777</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.18</v>
+        <v>12.178</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.46</v>
+        <v>7.457</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.033</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.658</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.28</v>
+        <v>124.279</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.14</v>
+        <v>24.144</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16</v>
+        <v>15.999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.621</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.254</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.86</v>
+        <v>15.856</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.41</v>
+        <v>6.414</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.47</v>
+        <v>7.473</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.952999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.91</v>
+        <v>29.906</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.4</v>
+        <v>4.405</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44788.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>33.18</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_107.xlsx
+++ b/DATA_goal/Junction_Flooding_107.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44788.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.28</v>
+        <v>12.281</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.127</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.26</v>
+        <v>36.257</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.97</v>
+        <v>29.975</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.23</v>
+        <v>13.233</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.96</v>
+        <v>49.957</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.98</v>
+        <v>8.984999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>13.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.655</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.36</v>
+        <v>15.356</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.23</v>
+        <v>4.226</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.68</v>
+        <v>18.679</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.14</v>
+        <v>11.144</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.833</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.96</v>
+        <v>192.962</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.77</v>
+        <v>36.765</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.63</v>
+        <v>24.633</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.13</v>
+        <v>13.127</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.83</v>
+        <v>1.827</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.33</v>
+        <v>24.325</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.58</v>
+        <v>9.581</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.23</v>
+        <v>11.228</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.32</v>
+        <v>15.322</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.21</v>
+        <v>45.206</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.81</v>
+        <v>6.807</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44788.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.86</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_107.xlsx
+++ b/DATA_goal/Junction_Flooding_107.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44788.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.815</v>
+        <v>16.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.281</v>
+        <v>12.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.127</v>
+        <v>1.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.257</v>
+        <v>36.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.975</v>
+        <v>29.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.233</v>
+        <v>13.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.957</v>
+        <v>49.96</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.984999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>13.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.655</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.356</v>
+        <v>15.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.226</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.159</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.679</v>
+        <v>18.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.144</v>
+        <v>11.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.724</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.962</v>
+        <v>192.96</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.765</v>
+        <v>36.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.146</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.633</v>
+        <v>24.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.127</v>
+        <v>13.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.827</v>
+        <v>1.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.325</v>
+        <v>24.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.728</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.581</v>
+        <v>9.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.228</v>
+        <v>11.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.322</v>
+        <v>15.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.206</v>
+        <v>45.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.807</v>
+        <v>6.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.185</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44788.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>33.18</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>
